--- a/meetings_dumped/kyriakides.xlsx
+++ b/meetings_dumped/kyriakides.xlsx
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="470">
+  <cellXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -168,6 +168,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -1926,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1974,1106 +1986,1128 @@
       <c r="I1" s="1" t="n"/>
     </row>
     <row r="2" ht="43.15" customHeight="1">
-      <c r="A2" s="466" t="inlineStr">
+      <c r="A2" s="470" t="inlineStr">
+        <is>
+          <t>21/04/2023</t>
+        </is>
+      </c>
+      <c r="B2" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C2" s="473" t="inlineStr">
+        <is>
+          <t>Gavi, the Vaccine Alliance</t>
+        </is>
+      </c>
+      <c r="D2" s="473" t="inlineStr">
+        <is>
+          <t>Global Health architecture &amp; vaccine donations</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="470" t="inlineStr">
         <is>
           <t>03/04/2023</t>
         </is>
       </c>
-      <c r="B2" s="469" t="inlineStr">
+      <c r="B3" s="473" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="C2" s="469" t="inlineStr">
+      <c r="C3" s="473" t="inlineStr">
         <is>
           <t>European Liver Patients' Association</t>
         </is>
       </c>
-      <c r="D2" s="469" t="inlineStr">
+      <c r="D3" s="473" t="inlineStr">
         <is>
           <t>VTC meeting on noncommunicable diseases</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="466" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="470" t="inlineStr">
         <is>
           <t>28/03/2023</t>
         </is>
       </c>
-      <c r="B3" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C3" s="469" t="inlineStr">
+      <c r="B4" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C4" s="473" t="inlineStr">
         <is>
           <t>Compassion in World Farming Brussels</t>
         </is>
       </c>
-      <c r="D3" s="469" t="inlineStr">
+      <c r="D4" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Conference on the revision of the EU legislation protecting farmed animals </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="466" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="470" t="inlineStr">
         <is>
           <t>23/03/2023</t>
         </is>
       </c>
-      <c r="B4" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C4" s="469" t="inlineStr">
+      <c r="B5" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C5" s="473" t="inlineStr">
         <is>
           <t>Eurogroup for Animals</t>
         </is>
       </c>
-      <c r="D4" s="469" t="inlineStr">
+      <c r="D5" s="473" t="inlineStr">
         <is>
           <t>Animal welfare file</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="466" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="470" t="inlineStr">
         <is>
           <t>06/03/2023</t>
         </is>
       </c>
-      <c r="B5" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C5" s="469" t="inlineStr">
+      <c r="B6" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C6" s="473" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="D5" s="469" t="inlineStr">
+      <c r="D6" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> EU animal welfare  </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="466" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="470" t="inlineStr">
         <is>
           <t>04/11/2022</t>
         </is>
       </c>
-      <c r="B6" s="469" t="inlineStr">
+      <c r="B7" s="473" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="C6" s="469" t="inlineStr">
+      <c r="C7" s="473" t="inlineStr">
         <is>
           <t>International Diabetes Federation European Region, European Diabetes Forum</t>
         </is>
       </c>
-      <c r="D6" s="469" t="inlineStr">
+      <c r="D7" s="473" t="inlineStr">
         <is>
           <t>VTC meeting on the Healthier Together - EU Non-Communicable Diseases initiative and on the priorities for the diabetes community</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="466" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="470" t="inlineStr">
         <is>
           <t>03/11/2022</t>
         </is>
       </c>
-      <c r="B7" s="469" t="inlineStr">
+      <c r="B8" s="473" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="C7" s="469" t="inlineStr">
+      <c r="C8" s="473" t="inlineStr">
         <is>
           <t>Moderna Inc.</t>
         </is>
       </c>
-      <c r="D7" s="469" t="inlineStr">
+      <c r="D8" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Videoconference with Moderna CEO on future of mRNA platform; ongoing cooperation on the management of the pandemic</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="466" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="470" t="inlineStr">
         <is>
           <t>29/06/2022</t>
         </is>
       </c>
-      <c r="B8" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C8" s="469" t="inlineStr">
+      <c r="B9" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C9" s="473" t="inlineStr">
         <is>
           <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
-      <c r="D8" s="469" t="inlineStr">
+      <c r="D9" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">  Exchange of views on the upcoming pharmaceutical legislation</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="466" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="470" t="inlineStr">
         <is>
           <t>03/03/2022</t>
         </is>
       </c>
-      <c r="B9" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C9" s="469" t="inlineStr">
+      <c r="B10" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C10" s="473" t="inlineStr">
         <is>
           <t>FIPRA International SRL</t>
         </is>
       </c>
-      <c r="D9" s="469" t="inlineStr">
+      <c r="D10" s="473" t="inlineStr">
         <is>
           <t>VTC Meeting with HIV Outcomes steering group on EU health policy, HIV and health related quality of life</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="466" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="470" t="inlineStr">
         <is>
           <t>01/02/2022</t>
         </is>
       </c>
-      <c r="B10" s="469" t="inlineStr">
+      <c r="B11" s="473" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="C10" s="469" t="inlineStr">
+      <c r="C11" s="473" t="inlineStr">
         <is>
           <t>International SOS Europe Government Services</t>
         </is>
       </c>
-      <c r="D10" s="469" t="inlineStr">
+      <c r="D11" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting - Commissioner Kyriakides met representatives of International SOS to hear about their work on vaccine donations and deliveries as well as on humanitarian aid. 
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="466" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="470" t="inlineStr">
         <is>
           <t>31/01/2022</t>
         </is>
       </c>
-      <c r="B11" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C11" s="469" t="inlineStr">
+      <c r="B12" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C12" s="473" t="inlineStr">
         <is>
           <t>WWF European Policy Programme, European Public Health Alliance, International Federation of Organic Agriculture Movements EU Regional Group, ClientEarth AISBL</t>
         </is>
       </c>
-      <c r="D11" s="469" t="inlineStr">
+      <c r="D12" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting on the framework legislation on sustainable food systems</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="466" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="470" t="inlineStr">
         <is>
           <t>09/11/2021</t>
         </is>
       </c>
-      <c r="B12" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C12" s="469" t="inlineStr">
+      <c r="B13" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C13" s="473" t="inlineStr">
         <is>
           <t>European Public Health Association</t>
         </is>
       </c>
-      <c r="D12" s="469" t="inlineStr">
+      <c r="D13" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting - Public health in a post-COVID era, EU4Health and opportunities of cooperation</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="466" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="470" t="inlineStr">
         <is>
           <t>09/11/2021</t>
         </is>
       </c>
-      <c r="B13" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C13" s="469" t="inlineStr">
+      <c r="B14" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C14" s="473" t="inlineStr">
         <is>
           <t>FIPRA International SRL</t>
         </is>
       </c>
-      <c r="D13" s="469" t="inlineStr">
+      <c r="D14" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">VTC  Meeting with HIV Outcomes Steering Group on HIV/AIDS policy and quality of life </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="466" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="470" t="inlineStr">
         <is>
           <t>25/10/2021</t>
         </is>
       </c>
-      <c r="B14" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C14" s="469" t="inlineStr">
+      <c r="B15" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C15" s="473" t="inlineStr">
         <is>
           <t>European Public Health Alliance, European Patients' Forum (EPF), Alzheimer Europe, EUROPEAN ORGANISATION FOR RARE DISEASES</t>
         </is>
       </c>
-      <c r="D14" s="469" t="inlineStr">
+      <c r="D15" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting: EU4Health Work Programme 2022 and operating grants.</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="466" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="470" t="inlineStr">
         <is>
           <t>05/09/2021</t>
         </is>
       </c>
-      <c r="B15" s="469" t="inlineStr">
+      <c r="B16" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C15" s="469" t="inlineStr">
+      <c r="C16" s="473" t="inlineStr">
         <is>
           <t>Gavi, the Vaccine Alliance</t>
         </is>
       </c>
-      <c r="D15" s="469" t="inlineStr">
+      <c r="D16" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchanges with GAVI on COVAX, vaccine equity and ACT-A. </t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="466" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="470" t="inlineStr">
         <is>
           <t>30/07/2021</t>
         </is>
       </c>
-      <c r="B16" s="469" t="inlineStr">
+      <c r="B17" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C16" s="469" t="inlineStr">
+      <c r="C17" s="473" t="inlineStr">
         <is>
           <t>European Public Health Alliance, European Patients' Forum (EPF), Alzheimer Europe, EUROPEAN ORGANISATION FOR RARE DISEASES</t>
         </is>
       </c>
-      <c r="D16" s="469" t="inlineStr">
+      <c r="D17" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting with civil society representatives regarding the EU4health programme. </t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="466" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="470" t="inlineStr">
         <is>
           <t>24/06/2021</t>
         </is>
       </c>
-      <c r="B17" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C17" s="469" t="inlineStr">
+      <c r="B18" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C18" s="473" t="inlineStr">
         <is>
           <t>European Platform for the Responsible use of medicines in animals</t>
         </is>
       </c>
-      <c r="D17" s="469" t="inlineStr">
+      <c r="D18" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC Meeting on AMR and implementation of  the new veterinary medicinal products regulation.</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="466" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="470" t="inlineStr">
         <is>
           <t>11/06/2021</t>
         </is>
       </c>
-      <c r="B18" s="469" t="inlineStr">
+      <c r="B19" s="473" t="inlineStr">
         <is>
           <t>Brussels, virtual meeting</t>
         </is>
       </c>
-      <c r="C18" s="469" t="inlineStr">
+      <c r="C19" s="473" t="inlineStr">
         <is>
           <t>Gilead Sciences</t>
         </is>
       </c>
-      <c r="D18" s="469" t="inlineStr">
+      <c r="D19" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on joint procurement and scientific assessment of Remdesivir</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="466" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="470" t="inlineStr">
         <is>
           <t>11/06/2021</t>
         </is>
       </c>
-      <c r="B19" s="469" t="inlineStr">
+      <c r="B20" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C19" s="469" t="inlineStr">
+      <c r="C20" s="473" t="inlineStr">
         <is>
           <t>The Brewers of Europe</t>
         </is>
       </c>
-      <c r="D19" s="469" t="inlineStr">
+      <c r="D20" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on labelling initiatives announced in the Cancer Plan and in the Farm to Fork strategy.</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="466" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="470" t="inlineStr">
         <is>
           <t>07/06/2021</t>
         </is>
       </c>
-      <c r="B20" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C20" s="469" t="inlineStr">
+      <c r="B21" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C21" s="473" t="inlineStr">
         <is>
           <t>European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Pharmaceutical Group of the European Union, MEDICINES FOR EUROPE, European Healthcare Distribution Association</t>
         </is>
       </c>
-      <c r="D20" s="469" t="inlineStr">
+      <c r="D21" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VTC meeting - Access to Medicines</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="466" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="470" t="inlineStr">
         <is>
           <t>25/05/2021</t>
         </is>
       </c>
-      <c r="B21" s="469" t="inlineStr">
+      <c r="B22" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C21" s="469" t="inlineStr">
+      <c r="C22" s="473" t="inlineStr">
         <is>
           <t>European Jewish Association</t>
         </is>
       </c>
-      <c r="D21" s="469" t="inlineStr">
+      <c r="D22" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange on ruling of the EU Court of Justice (Case C-336/19) on slaughter without stunning /freedom of religion.  </t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="466" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="470" t="inlineStr">
         <is>
           <t>18/05/2021</t>
         </is>
       </c>
-      <c r="B22" s="469" t="inlineStr">
+      <c r="B23" s="473" t="inlineStr">
         <is>
           <t>Brussels, virtual</t>
         </is>
       </c>
-      <c r="C22" s="469" t="inlineStr">
+      <c r="C23" s="473" t="inlineStr">
         <is>
           <t>European Society for Paediatric Oncology, Childhood Cancer International - Europe, PanCare</t>
         </is>
       </c>
-      <c r="D22" s="469" t="inlineStr">
+      <c r="D23" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on the implementation of Europe’s Beating Cancer Plan in paediatric oncology</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="466" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="470" t="inlineStr">
         <is>
           <t>23/04/2021</t>
         </is>
       </c>
-      <c r="B23" s="469" t="inlineStr">
+      <c r="B24" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C23" s="469" t="inlineStr">
+      <c r="C24" s="473" t="inlineStr">
         <is>
           <t>EuroCommerce</t>
         </is>
       </c>
-      <c r="D23" s="469" t="inlineStr">
+      <c r="D24" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VTC event - Sustainable Food Systems</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="466" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="470" t="inlineStr">
         <is>
           <t>07/04/2021</t>
         </is>
       </c>
-      <c r="B24" s="469" t="inlineStr">
+      <c r="B25" s="473" t="inlineStr">
         <is>
           <t>Brussels - virtual meeting</t>
         </is>
       </c>
-      <c r="C24" s="469" t="inlineStr">
+      <c r="C25" s="473" t="inlineStr">
         <is>
           <t>European Cancer Organisation</t>
         </is>
       </c>
-      <c r="D24" s="469" t="inlineStr">
+      <c r="D25" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange of views on Europe’s Beating Cancer Plan and its implementation with the European Cancer Organisation and its Member Societies and Patient Advisory Committee </t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="466" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="470" t="inlineStr">
         <is>
           <t>24/03/2021</t>
         </is>
       </c>
-      <c r="B25" s="469" t="inlineStr">
+      <c r="B26" s="473" t="inlineStr">
         <is>
           <t>Brussels, virtual meeting</t>
         </is>
       </c>
-      <c r="C25" s="469" t="inlineStr">
+      <c r="C26" s="473" t="inlineStr">
         <is>
           <t>European Association of Urology</t>
         </is>
       </c>
-      <c r="D25" s="469" t="inlineStr">
+      <c r="D26" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exchange of views on Europe's Beating Cancer Plan and the European Health Data Space</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="466" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="470" t="inlineStr">
         <is>
           <t>05/03/2021</t>
         </is>
       </c>
-      <c r="B26" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C26" s="469" t="inlineStr">
+      <c r="B27" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C27" s="473" t="inlineStr">
         <is>
           <t>European Federation of Pharmaceutical Industries and Associations, BUSINESSEUROPE, MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="D26" s="469" t="inlineStr">
+      <c r="D27" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VC Meeting discussion on COVID-19 vaccines export authorisation scheme.</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="466" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="470" t="inlineStr">
         <is>
           <t>02/03/2021</t>
         </is>
       </c>
-      <c r="B27" s="469" t="inlineStr">
+      <c r="B28" s="473" t="inlineStr">
         <is>
           <t>Virtual Meeting</t>
         </is>
       </c>
-      <c r="C27" s="469" t="inlineStr">
+      <c r="C28" s="473" t="inlineStr">
         <is>
           <t>The European House - Ambrosetti</t>
         </is>
       </c>
-      <c r="D27" s="469" t="inlineStr">
+      <c r="D28" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">The EU’s healthcare policy in the post-pandemic landscape </t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="466" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="470" t="inlineStr">
         <is>
           <t>24/02/2021</t>
         </is>
       </c>
-      <c r="B28" s="469" t="inlineStr">
+      <c r="B29" s="473" t="inlineStr">
         <is>
           <t>Brussels - virtual meeting</t>
         </is>
       </c>
-      <c r="C28" s="469" t="inlineStr">
+      <c r="C29" s="473" t="inlineStr">
         <is>
           <t>European Organisation for Research and Treatment of Cancer</t>
         </is>
       </c>
-      <c r="D28" s="469" t="inlineStr">
+      <c r="D29" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on Europe’s Beating Cancer Plan, the EU Pharmaceutical Strategy and the availability of medicines.</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="466" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="470" t="inlineStr">
         <is>
           <t>22/02/2021</t>
         </is>
       </c>
-      <c r="B29" s="469" t="inlineStr">
+      <c r="B30" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C29" s="469" t="inlineStr">
+      <c r="C30" s="473" t="inlineStr">
         <is>
           <t>Gavi, the Vaccine Alliance</t>
         </is>
       </c>
-      <c r="D29" s="469" t="inlineStr">
+      <c r="D30" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange on COVAX and the EU vaccine sharing mechanism. </t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="466" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="470" t="inlineStr">
         <is>
           <t>18/02/2021</t>
         </is>
       </c>
-      <c r="B30" s="469" t="inlineStr">
+      <c r="B31" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C30" s="469" t="inlineStr">
+      <c r="C31" s="473" t="inlineStr">
         <is>
           <t>Coalition for Epidemic Preparedness Innovations</t>
         </is>
       </c>
-      <c r="D30" s="469" t="inlineStr">
+      <c r="D31" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on the new coronavirus mutants, the HERA incubator, roll out of vaccines under COVAX and the vaccine sharing mechanism.
  </t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="466" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="470" t="inlineStr">
         <is>
           <t>12/02/2021</t>
         </is>
       </c>
-      <c r="B31" s="469" t="inlineStr">
+      <c r="B32" s="473" t="inlineStr">
         <is>
           <t>Virtual Meeting</t>
         </is>
       </c>
-      <c r="C31" s="469" t="inlineStr">
+      <c r="C32" s="473" t="inlineStr">
         <is>
           <t>World Union of Wholesale Markets</t>
         </is>
       </c>
-      <c r="D31" s="469" t="inlineStr">
+      <c r="D32" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Farm to Fork strategy</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="466" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="470" t="inlineStr">
         <is>
           <t>15/01/2021</t>
         </is>
       </c>
-      <c r="B32" s="469" t="inlineStr">
+      <c r="B33" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C33" s="473" t="inlineStr">
+        <is>
+          <t>Corporate Europe Observatory, European Coordination Via Campesina, Greenpeace European Unit, International Federation of Organic Agriculture Movements EU Regional Group, Friends of the Earth Europe</t>
+        </is>
+      </c>
+      <c r="D33" s="473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VC Meeting - Farm to Fork Strategy and GMOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="470" t="inlineStr">
+        <is>
+          <t>15/01/2021</t>
+        </is>
+      </c>
+      <c r="B34" s="473" t="inlineStr">
         <is>
           <t>Brussels, virtual meeting</t>
         </is>
       </c>
-      <c r="C32" s="469" t="inlineStr">
+      <c r="C34" s="473" t="inlineStr">
         <is>
           <t>Association of European Cancer Leagues</t>
         </is>
       </c>
-      <c r="D32" s="469" t="inlineStr">
+      <c r="D34" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on the EU Pharmaceutical Strategy</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="466" t="inlineStr">
-        <is>
-          <t>15/01/2021</t>
-        </is>
-      </c>
-      <c r="B33" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C33" s="469" t="inlineStr">
-        <is>
-          <t>Corporate Europe Observatory, European Coordination Via Campesina, Greenpeace European Unit, International Federation of Organic Agriculture Movements EU Regional Group, Friends of the Earth Europe</t>
-        </is>
-      </c>
-      <c r="D33" s="469" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> VC Meeting - Farm to Fork Strategy and GMOs</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="466" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="470" t="inlineStr">
         <is>
           <t>16/12/2020</t>
         </is>
       </c>
-      <c r="B34" s="469" t="inlineStr">
+      <c r="B35" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C34" s="469" t="inlineStr">
+      <c r="C35" s="473" t="inlineStr">
         <is>
           <t>Wellcome Trust</t>
         </is>
       </c>
-      <c r="D34" s="469" t="inlineStr">
+      <c r="D35" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange of views with Jeremy Farrar from Wellcome Trust on the work of ACT-A esp. on COVID-19 vaccines and therapeutics. 
 </t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="466" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="470" t="inlineStr">
         <is>
           <t>10/12/2020</t>
         </is>
       </c>
-      <c r="B35" s="469" t="inlineStr">
+      <c r="B36" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C35" s="469" t="inlineStr">
+      <c r="C36" s="473" t="inlineStr">
         <is>
           <t>Thalassaemia International Federation</t>
         </is>
       </c>
-      <c r="D35" s="469" t="inlineStr">
+      <c r="D36" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Exchange on EU plans to revise the legislation on safety of blood and on other issues of interest/concern by Thalassaemia patients. 
  </t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="466" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="470" t="inlineStr">
         <is>
           <t>07/12/2020</t>
         </is>
       </c>
-      <c r="B36" s="469" t="inlineStr">
+      <c r="B37" s="473" t="inlineStr">
         <is>
           <t>virtual meeting</t>
         </is>
       </c>
-      <c r="C36" s="469" t="inlineStr">
+      <c r="C37" s="473" t="inlineStr">
         <is>
           <t>Gilead Sciences</t>
         </is>
       </c>
-      <c r="D36" s="469" t="inlineStr">
+      <c r="D37" s="473" t="inlineStr">
         <is>
           <t>Exchange of views, update on Remdesivir</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="466" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="470" t="inlineStr">
         <is>
           <t>19/11/2020</t>
         </is>
       </c>
-      <c r="B37" s="469" t="inlineStr">
+      <c r="B38" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C37" s="469" t="inlineStr">
+      <c r="C38" s="473" t="inlineStr">
         <is>
           <t>EUFAMI</t>
         </is>
       </c>
-      <c r="D37" s="469" t="inlineStr">
+      <c r="D38" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on their goals and the outcome of recent research on the value of caring,  with particular mention to the increased burden on families and carers due to COVID-19 pandemic.</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="466" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="470" t="inlineStr">
         <is>
           <t>06/11/2020</t>
         </is>
       </c>
-      <c r="B38" s="469" t="inlineStr">
+      <c r="B39" s="473" t="inlineStr">
         <is>
           <t>Brussels - virtual</t>
         </is>
       </c>
-      <c r="C38" s="469" t="inlineStr">
+      <c r="C39" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE, European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="D38" s="469" t="inlineStr">
+      <c r="D39" s="473" t="inlineStr">
         <is>
           <t>Videoconference with Pharmaceutical Industry Associations to discuss shortages of medicines and medical devices including diagnostic tests in the context of COVID-19 pandemic</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="466" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="470" t="inlineStr">
         <is>
           <t>16/10/2020</t>
         </is>
       </c>
-      <c r="B39" s="469" t="inlineStr">
+      <c r="B40" s="473" t="inlineStr">
         <is>
           <t>Brussels - virtual meeting</t>
         </is>
       </c>
-      <c r="C39" s="469" t="inlineStr">
+      <c r="C40" s="473" t="inlineStr">
         <is>
           <t>Gilead Sciences</t>
         </is>
       </c>
-      <c r="D39" s="469" t="inlineStr">
+      <c r="D40" s="473" t="inlineStr">
         <is>
           <t>Exchange of views - update on Remdesivir</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="466" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="470" t="inlineStr">
         <is>
           <t>08/10/2020</t>
         </is>
       </c>
-      <c r="B40" s="469" t="inlineStr">
+      <c r="B41" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussells </t>
         </is>
       </c>
-      <c r="C40" s="469" t="inlineStr">
+      <c r="C41" s="473" t="inlineStr">
         <is>
           <t>European Federation of Nurses Associations</t>
         </is>
       </c>
-      <c r="D40" s="469" t="inlineStr">
+      <c r="D41" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Virtual meeting for exchange of views on health priorities files (cancer, pharma strategy, vaccines, Covid19 lessons learned) </t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="466" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="470" t="inlineStr">
         <is>
           <t>07/10/2020</t>
         </is>
       </c>
-      <c r="B41" s="469" t="inlineStr">
+      <c r="B42" s="473" t="inlineStr">
         <is>
           <t>Brussels - virtual</t>
         </is>
       </c>
-      <c r="C41" s="469" t="inlineStr">
+      <c r="C42" s="473" t="inlineStr">
         <is>
           <t>European Society of Radiology</t>
         </is>
       </c>
-      <c r="D41" s="469" t="inlineStr">
+      <c r="D42" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on Europe's Beating Cancer Plan and the need for early detection and diagnosis.   </t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="466" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="470" t="inlineStr">
         <is>
           <t>23/09/2020</t>
         </is>
       </c>
-      <c r="B42" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C42" s="469" t="inlineStr">
+      <c r="B43" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C43" s="473" t="inlineStr">
         <is>
           <t>European Cancer Organisation</t>
         </is>
       </c>
-      <c r="D42" s="469" t="inlineStr">
+      <c r="D43" s="473" t="inlineStr">
         <is>
           <t>The Commissioner delivers a speech at the launch of the European Code of Cancer Practice virtual event</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="466" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="470" t="inlineStr">
         <is>
           <t>22/09/2020</t>
         </is>
       </c>
-      <c r="B43" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C43" s="469" t="inlineStr">
+      <c r="B44" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C44" s="473" t="inlineStr">
         <is>
           <t>The European Association of Hospital Pharmacists</t>
         </is>
       </c>
-      <c r="D43" s="469" t="inlineStr">
+      <c r="D44" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on the upcoming Pharmaceutical Strategy, shortages of medicines and the role of health workforce in the health systems</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="466" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="470" t="inlineStr">
         <is>
           <t>18/09/2020</t>
         </is>
       </c>
-      <c r="B44" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C44" s="469" t="inlineStr">
+      <c r="B45" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C45" s="473" t="inlineStr">
         <is>
           <t>Digestive Cancers Europe</t>
         </is>
       </c>
-      <c r="D44" s="469" t="inlineStr">
+      <c r="D45" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Virtual meeting about Europe’s Beating Cancer Plan and digestive cancers </t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="466" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="470" t="inlineStr">
         <is>
           <t>18/09/2020</t>
         </is>
       </c>
-      <c r="B45" s="469" t="inlineStr">
+      <c r="B46" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C45" s="469" t="inlineStr">
+      <c r="C46" s="473" t="inlineStr">
         <is>
           <t>European Chronic Disease Alliance</t>
         </is>
       </c>
-      <c r="D45" s="469" t="inlineStr">
+      <c r="D46" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Virtual meeting about Europe’s Beating Cancer Plan and chronic diseases </t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="466" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="470" t="inlineStr">
         <is>
           <t>17/09/2020</t>
         </is>
       </c>
-      <c r="B46" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C46" s="469" t="inlineStr">
+      <c r="B47" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C47" s="473" t="inlineStr">
         <is>
           <t>World Resources Institute</t>
         </is>
       </c>
-      <c r="D46" s="469" t="inlineStr">
+      <c r="D47" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Virtual meeting discussion on Food Waste </t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="466" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="470" t="inlineStr">
         <is>
           <t>14/09/2020</t>
         </is>
       </c>
-      <c r="B47" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C47" s="469" t="inlineStr">
+      <c r="B48" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C48" s="473" t="inlineStr">
         <is>
           <t>SIC - Sociedade Independente de Comunicação SA</t>
         </is>
       </c>
-      <c r="D47" s="469" t="inlineStr">
+      <c r="D48" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Virtual meeting, for Europe’s Beating Cancer Plan </t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="466" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="470" t="inlineStr">
         <is>
           <t>10/09/2020</t>
         </is>
       </c>
-      <c r="B48" s="469" t="inlineStr">
+      <c r="B49" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C48" s="469" t="inlineStr">
+      <c r="C49" s="473" t="inlineStr">
         <is>
           <t>European Academy of Paediatrics/ Union of European Medical Specialists Section of Paediatrics</t>
         </is>
       </c>
-      <c r="D48" s="469" t="inlineStr">
+      <c r="D49" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on health priorities files (cancer, pharma strategy, vaccination)</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="466" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="470" t="inlineStr">
         <is>
           <t>10/09/2020</t>
         </is>
       </c>
-      <c r="B49" s="469" t="inlineStr">
+      <c r="B50" s="473" t="inlineStr">
         <is>
           <t>Virtual meeting</t>
         </is>
       </c>
-      <c r="C49" s="469" t="inlineStr">
+      <c r="C50" s="473" t="inlineStr">
         <is>
           <t>European Public Health Alliance</t>
         </is>
       </c>
-      <c r="D49" s="469" t="inlineStr">
+      <c r="D50" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on the pharmaceutical strategy</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="466" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="470" t="inlineStr">
         <is>
           <t>09/09/2020</t>
         </is>
       </c>
-      <c r="B50" s="469" t="inlineStr">
+      <c r="B51" s="473" t="inlineStr">
         <is>
           <t>Phone call</t>
         </is>
       </c>
-      <c r="C50" s="469" t="inlineStr">
+      <c r="C51" s="473" t="inlineStr">
         <is>
           <t>Gilead Sciences</t>
         </is>
       </c>
-      <c r="D50" s="469" t="inlineStr">
+      <c r="D51" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Discussions/update on Remdesivir</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="466" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="470" t="inlineStr">
         <is>
           <t>22/07/2020</t>
         </is>
       </c>
-      <c r="B51" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C51" s="469" t="inlineStr">
+      <c r="B52" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C52" s="473" t="inlineStr">
         <is>
           <t>Federation of Veterinarians of Europe</t>
         </is>
       </c>
-      <c r="D51" s="469" t="inlineStr">
+      <c r="D52" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Topics discussed: 
 Farm to Fork Strategy
@@ -3084,1436 +3118,1436 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="466" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="470" t="inlineStr">
         <is>
           <t>17/07/2020</t>
         </is>
       </c>
-      <c r="B52" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C52" s="469" t="inlineStr">
+      <c r="B53" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C53" s="473" t="inlineStr">
         <is>
           <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="D52" s="469" t="inlineStr">
+      <c r="D53" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on the upcoming Pharmaceutical Strategy</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="466" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="470" t="inlineStr">
         <is>
           <t>17/07/2020</t>
         </is>
       </c>
-      <c r="B53" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C53" s="469" t="inlineStr">
+      <c r="B54" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C54" s="473" t="inlineStr">
         <is>
           <t>European Social Insurance Platform AISBL</t>
         </is>
       </c>
-      <c r="D53" s="469" t="inlineStr">
+      <c r="D54" s="473" t="inlineStr">
         <is>
           <t>Exchange of views on the upcoming Pharmaceutical Strategy</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="466" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="470" t="inlineStr">
         <is>
           <t>06/07/2020</t>
         </is>
       </c>
-      <c r="B54" s="469" t="inlineStr">
+      <c r="B55" s="473" t="inlineStr">
         <is>
           <t>Webex meeting</t>
         </is>
       </c>
-      <c r="C54" s="469" t="inlineStr">
+      <c r="C55" s="473" t="inlineStr">
         <is>
           <t>AnimalhealthEurope</t>
         </is>
       </c>
-      <c r="D54" s="469" t="inlineStr">
+      <c r="D55" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Farm to Fork Strategy, animal health law and the implementation of the veterinary medicinal products regulation.  </t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="466" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="470" t="inlineStr">
         <is>
           <t>06/07/2020</t>
         </is>
       </c>
-      <c r="B55" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C55" s="469" t="inlineStr">
+      <c r="B56" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C56" s="473" t="inlineStr">
         <is>
           <t>Gilead Sciences</t>
         </is>
       </c>
-      <c r="D55" s="469" t="inlineStr">
+      <c r="D56" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">VC meeting: Exchange of views on the forthcoming Pharmaceutical Strategy </t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="466" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="470" t="inlineStr">
         <is>
           <t>03/07/2020</t>
         </is>
       </c>
-      <c r="B56" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C56" s="469" t="inlineStr">
+      <c r="B57" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C57" s="473" t="inlineStr">
         <is>
           <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
-      <c r="D56" s="469" t="inlineStr">
+      <c r="D57" s="473" t="inlineStr">
         <is>
           <t>VC meeting : Exchange of views on the forthcoming Pharmaceutical Strategy</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="466" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="470" t="inlineStr">
         <is>
           <t>02/07/2020</t>
         </is>
       </c>
-      <c r="B57" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C57" s="469" t="inlineStr">
+      <c r="B58" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C58" s="473" t="inlineStr">
         <is>
           <t>Pharmaceutical Group of the European Union</t>
         </is>
       </c>
-      <c r="D57" s="469" t="inlineStr">
+      <c r="D58" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">VC meeting: Exchange of views on the forthcoming Pharmaceutical Strategy </t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="466" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="470" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="B58" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C58" s="469" t="inlineStr">
+      <c r="B59" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C59" s="473" t="inlineStr">
         <is>
           <t>Bureau Européen des Unions de Consommateurs</t>
         </is>
       </c>
-      <c r="D58" s="469" t="inlineStr">
+      <c r="D59" s="473" t="inlineStr">
         <is>
           <t>VC meeting: Exchange of views on the forthcoming Pharmaceutical Strategy</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="466" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="470" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="B59" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C59" s="469" t="inlineStr">
+      <c r="B60" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C60" s="473" t="inlineStr">
         <is>
           <t>Endocrine Society</t>
         </is>
       </c>
-      <c r="D59" s="469" t="inlineStr">
+      <c r="D60" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VC Meeting on Endocrine Disruptors and Health Policy</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="466" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="470" t="inlineStr">
         <is>
           <t>29/06/2020</t>
         </is>
       </c>
-      <c r="B60" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C60" s="469" t="inlineStr">
+      <c r="B61" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C61" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE, European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="D60" s="469" t="inlineStr">
+      <c r="D61" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Videoconference with Pharmaceutical Industry Associations to discuss shortages of medicines and medical devices including diagnostic tests in the context of COVID-19 pandemic
 </t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="466" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="470" t="inlineStr">
         <is>
           <t>26/06/2020</t>
         </is>
       </c>
-      <c r="B61" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C61" s="469" t="inlineStr">
+      <c r="B62" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C62" s="473" t="inlineStr">
         <is>
           <t>European Patients' Forum (EPF)</t>
         </is>
       </c>
-      <c r="D61" s="469" t="inlineStr">
+      <c r="D62" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">VC meeting: Exchange of views on the forthcoming Pharmaceutical Strategy </t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="466" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="470" t="inlineStr">
         <is>
           <t>25/06/2020</t>
         </is>
       </c>
-      <c r="B62" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C62" s="469" t="inlineStr">
+      <c r="B63" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C63" s="473" t="inlineStr">
         <is>
           <t>Standing Committee of European Doctors</t>
         </is>
       </c>
-      <c r="D62" s="469" t="inlineStr">
+      <c r="D63" s="473" t="inlineStr">
         <is>
           <t>VC meeting: Exchange of views on the forthcoming Pharmaceutical Strategy</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="466" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="470" t="inlineStr">
         <is>
           <t>25/06/2020</t>
         </is>
       </c>
-      <c r="B63" s="469" t="inlineStr">
+      <c r="B64" s="473" t="inlineStr">
         <is>
           <t>brussels</t>
         </is>
       </c>
-      <c r="C63" s="469" t="inlineStr">
+      <c r="C64" s="473" t="inlineStr">
         <is>
           <t>European Heart Network, European Society of Cardiology</t>
         </is>
       </c>
-      <c r="D63" s="469" t="inlineStr">
+      <c r="D64" s="473" t="inlineStr">
         <is>
           <t>The MEP Heart Group also participated. The Associations presented their work and the discussion focused on the impact of COVID19 on patients with cardiovascular diseases and F2F and its link to healthy diets and benefits for cardiovascular patients.</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="466" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="470" t="inlineStr">
         <is>
           <t>23/06/2020</t>
         </is>
       </c>
-      <c r="B64" s="469" t="inlineStr">
+      <c r="B65" s="473" t="inlineStr">
         <is>
           <t>Webex meeting</t>
         </is>
       </c>
-      <c r="C64" s="469" t="inlineStr">
+      <c r="C65" s="473" t="inlineStr">
         <is>
           <t>Compassion in World Farming International</t>
         </is>
       </c>
-      <c r="D64" s="469" t="inlineStr">
+      <c r="D65" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="466" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="470" t="inlineStr">
         <is>
           <t>22/06/2020</t>
         </is>
       </c>
-      <c r="B65" s="469" t="inlineStr">
+      <c r="B66" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C65" s="469" t="inlineStr">
+      <c r="C66" s="473" t="inlineStr">
         <is>
           <t>Twitter International Unlimited Company</t>
         </is>
       </c>
-      <c r="D65" s="469" t="inlineStr">
+      <c r="D66" s="473" t="inlineStr">
         <is>
           <t>Twitter's actions on their platform to ensure that users receive credible information on COVID-19, the Commissions work on COVID dis and misinformation and the need for platforms to cooperate and deliver better results.</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="466" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="470" t="inlineStr">
         <is>
           <t>22/06/2020</t>
         </is>
       </c>
-      <c r="B66" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C66" s="469" t="inlineStr">
+      <c r="B67" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C67" s="473" t="inlineStr">
         <is>
           <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association</t>
         </is>
       </c>
-      <c r="D66" s="469" t="inlineStr">
+      <c r="D67" s="473" t="inlineStr">
         <is>
           <t>Impact of the COVID-19 crisis on LGBTI populations, access to healthcare, mental health and HIV testing and treatment, EU LGBTI equality strategy</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="466" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="470" t="inlineStr">
         <is>
           <t>22/06/2020</t>
         </is>
       </c>
-      <c r="B67" s="469" t="inlineStr">
+      <c r="B68" s="473" t="inlineStr">
         <is>
           <t>Webex meeting</t>
         </is>
       </c>
-      <c r="C67" s="469" t="inlineStr">
+      <c r="C68" s="473" t="inlineStr">
         <is>
           <t>Eurogroup for Animals</t>
         </is>
       </c>
-      <c r="D67" s="469" t="inlineStr">
+      <c r="D68" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Farm to Fork Strategy. </t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="466" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="470" t="inlineStr">
         <is>
           <t>19/06/2020</t>
         </is>
       </c>
-      <c r="B68" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C68" s="469" t="inlineStr">
+      <c r="B69" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C69" s="473" t="inlineStr">
         <is>
           <t>Conseil Européen des Jeunes Agriculteurs</t>
         </is>
       </c>
-      <c r="D68" s="469" t="inlineStr">
+      <c r="D69" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting on Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="466" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="470" t="inlineStr">
         <is>
           <t>18/06/2020</t>
         </is>
       </c>
-      <c r="B69" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C69" s="469" t="inlineStr">
+      <c r="B70" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C70" s="473" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="D69" s="469" t="inlineStr">
+      <c r="D70" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 VC Meeting on Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="466" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="470" t="inlineStr">
         <is>
           <t>16/06/2020</t>
         </is>
       </c>
-      <c r="B70" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C70" s="469" t="inlineStr">
+      <c r="B71" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C71" s="473" t="inlineStr">
         <is>
           <t>International Biocontrol Manufacturers' Association</t>
         </is>
       </c>
-      <c r="D70" s="469" t="inlineStr">
+      <c r="D71" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting on Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="466" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="470" t="inlineStr">
         <is>
           <t>11/06/2020</t>
         </is>
       </c>
-      <c r="B71" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C71" s="469" t="inlineStr">
+      <c r="B72" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C72" s="473" t="inlineStr">
         <is>
           <t>CropLife Europe</t>
         </is>
       </c>
-      <c r="D71" s="469" t="inlineStr">
+      <c r="D72" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting on Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="466" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="470" t="inlineStr">
         <is>
           <t>11/06/2020</t>
         </is>
       </c>
-      <c r="B72" s="469" t="inlineStr">
+      <c r="B73" s="473" t="inlineStr">
         <is>
           <t>Webex meeting</t>
         </is>
       </c>
-      <c r="C72" s="469" t="inlineStr">
+      <c r="C73" s="473" t="inlineStr">
         <is>
           <t>European Public Health Alliance</t>
         </is>
       </c>
-      <c r="D72" s="469" t="inlineStr">
+      <c r="D73" s="473" t="inlineStr">
         <is>
           <t>Farm to Fork Strategy.</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="466" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="470" t="inlineStr">
         <is>
           <t>09/06/2020</t>
         </is>
       </c>
-      <c r="B73" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C73" s="469" t="inlineStr">
+      <c r="B74" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C74" s="473" t="inlineStr">
         <is>
           <t>FoodDrinkEurope</t>
         </is>
       </c>
-      <c r="D73" s="469" t="inlineStr">
+      <c r="D74" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting - Farm to Fork</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="466" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="470" t="inlineStr">
         <is>
           <t>08/06/2020</t>
         </is>
       </c>
-      <c r="B74" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C74" s="469" t="inlineStr">
+      <c r="B75" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C75" s="473" t="inlineStr">
         <is>
           <t>EuroCommerce</t>
         </is>
       </c>
-      <c r="D74" s="469" t="inlineStr">
+      <c r="D75" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting - Farm to Fork</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="466" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="470" t="inlineStr">
         <is>
           <t>05/06/2020</t>
         </is>
       </c>
-      <c r="B75" s="469" t="inlineStr">
+      <c r="B76" s="473" t="inlineStr">
         <is>
           <t>Brussles</t>
         </is>
       </c>
-      <c r="C75" s="469" t="inlineStr">
+      <c r="C76" s="473" t="inlineStr">
         <is>
           <t>Compassion in World Farming Brussels, European Coordination Via Campesina, International Federation of Organic Agriculture Movements EU Regional Group, European Environmental Bureau, Slow Food, Safe Food Advocacy Europe</t>
         </is>
       </c>
-      <c r="D75" s="469" t="inlineStr">
+      <c r="D76" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting - Farm to Fork</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="466" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="470" t="inlineStr">
         <is>
           <t>04/06/2020</t>
         </is>
       </c>
-      <c r="B76" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C76" s="469" t="inlineStr">
+      <c r="B77" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C77" s="473" t="inlineStr">
         <is>
           <t>Green 10</t>
         </is>
       </c>
-      <c r="D76" s="469" t="inlineStr">
+      <c r="D77" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC Meeting on Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="466" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="470" t="inlineStr">
         <is>
           <t>02/06/2020</t>
         </is>
       </c>
-      <c r="B77" s="469" t="inlineStr">
+      <c r="B78" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Brussels</t>
         </is>
       </c>
-      <c r="C77" s="469" t="inlineStr">
+      <c r="C78" s="473" t="inlineStr">
         <is>
           <t>Bureau Européen des Unions de Consommateurs</t>
         </is>
       </c>
-      <c r="D77" s="469" t="inlineStr">
+      <c r="D78" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting - Farm to Fork Strategy </t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="466" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="470" t="inlineStr">
         <is>
           <t>29/05/2020</t>
         </is>
       </c>
-      <c r="B78" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C78" s="469" t="inlineStr">
+      <c r="B79" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C79" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Public Health Alliance, European Federation of Pharmaceutical Industries and Associations, European Patients' Forum (EPF), Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="D78" s="469" t="inlineStr">
+      <c r="D79" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Video call with Pharmaceutical Industrial Associations, the European Medicines Agency and the European Centre for Disease Prevention and Control, to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak </t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="466" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="470" t="inlineStr">
         <is>
           <t>27/05/2020</t>
         </is>
       </c>
-      <c r="B79" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C79" s="469" t="inlineStr">
+      <c r="B80" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C80" s="473" t="inlineStr">
         <is>
           <t>European Cancer Organisation</t>
         </is>
       </c>
-      <c r="D79" s="469" t="inlineStr">
+      <c r="D80" s="473" t="inlineStr">
         <is>
           <t>VC meeting with 28 ECCO member societies and 17 patient advocacy groups to discuss Europe’s Beating Cancer Plan and the impact of COVID on cancer care and oncology patients</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="466" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="470" t="inlineStr">
         <is>
           <t>26/05/2020</t>
         </is>
       </c>
-      <c r="B80" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C80" s="469" t="inlineStr">
+      <c r="B81" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C81" s="473" t="inlineStr">
         <is>
           <t>European Society for Medical Oncology (ESMO)</t>
         </is>
       </c>
-      <c r="D80" s="469" t="inlineStr">
+      <c r="D81" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">VC meeting to discuss the EU's Cancer Plan and its objectives, cancer care and treatment during the COVID-19 pandemic </t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="466" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="470" t="inlineStr">
         <is>
           <t>26/05/2020</t>
         </is>
       </c>
-      <c r="B81" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C81" s="469" t="inlineStr">
+      <c r="B82" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C82" s="473" t="inlineStr">
         <is>
           <t>European Society for Paediatric Oncology</t>
         </is>
       </c>
-      <c r="D81" s="469" t="inlineStr">
+      <c r="D82" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">VC meeting to discuss the EU's Cancer Plan and its objectives, cancer care and treatment during the COVID-19 pandemic </t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="466" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="470" t="inlineStr">
         <is>
           <t>25/05/2020</t>
         </is>
       </c>
-      <c r="B82" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C82" s="469" t="inlineStr">
+      <c r="B83" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C83" s="473" t="inlineStr">
         <is>
           <t>Association of European Cancer Leagues</t>
         </is>
       </c>
-      <c r="D82" s="469" t="inlineStr">
+      <c r="D83" s="473" t="inlineStr">
         <is>
           <t>VC meeting with discussion on access to care for cancer patients, clinical trials and research, healthcare systems in Member States during COVID-19, data collection and future funding.</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="466" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="470" t="inlineStr">
         <is>
           <t>25/05/2020</t>
         </is>
       </c>
-      <c r="B83" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C83" s="469" t="inlineStr">
+      <c r="B84" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C84" s="473" t="inlineStr">
         <is>
           <t>European Cancer Patient Coalition</t>
         </is>
       </c>
-      <c r="D83" s="469" t="inlineStr">
+      <c r="D84" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> VC meeting: EU's Cancer Plan, funding related to cancer and the challenges cancer patients face during COVID-19 </t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="466" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="470" t="inlineStr">
         <is>
           <t>15/05/2020</t>
         </is>
       </c>
-      <c r="B84" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C84" s="469" t="inlineStr">
+      <c r="B85" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C85" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE, European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="D84" s="469" t="inlineStr">
+      <c r="D85" s="473" t="inlineStr">
         <is>
           <t>Video call with Pharmaceutical Industrial Associations, the European Medicines Agency and the European Centre for Disease Prevention and Control, to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="466" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="470" t="inlineStr">
         <is>
           <t>08/05/2020</t>
         </is>
       </c>
-      <c r="B85" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C85" s="469" t="inlineStr">
+      <c r="B86" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C86" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE, European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="D85" s="469" t="inlineStr">
+      <c r="D86" s="473" t="inlineStr">
         <is>
           <t>Video call with Pharmaceutical Industrial Associations, the European Medicines Agency and the European Centre for Disease Prevention and Control, to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="466" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="470" t="inlineStr">
         <is>
           <t>07/05/2020</t>
         </is>
       </c>
-      <c r="B86" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C86" s="469" t="inlineStr">
+      <c r="B87" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C87" s="473" t="inlineStr">
         <is>
           <t>European Patients' Forum (EPF)</t>
         </is>
       </c>
-      <c r="D86" s="469" t="inlineStr">
+      <c r="D87" s="473" t="inlineStr">
         <is>
           <t>VC meeting on EU's Cancer Plan and challenges of patients with chronic diseases during COVID-19</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="466" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="470" t="inlineStr">
         <is>
           <t>06/05/2020</t>
         </is>
       </c>
-      <c r="B87" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C87" s="469" t="inlineStr">
+      <c r="B88" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C88" s="473" t="inlineStr">
         <is>
           <t>Gilead Sciences</t>
         </is>
       </c>
-      <c r="D87" s="469" t="inlineStr">
+      <c r="D88" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">VC meeting on remdesivir as a developmental medicine, the clinical trial programme, actions taken in respect of making remdesivir available via a compassionate use, Member States' needs and distribution should it receive market authorisation
 </t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="466" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="470" t="inlineStr">
         <is>
           <t>29/04/2020</t>
         </is>
       </c>
-      <c r="B88" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C88" s="469" t="inlineStr">
+      <c r="B89" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C89" s="473" t="inlineStr">
         <is>
           <t>European Federation of Public Service Unions, Social Services Europe, European Disability Forum, AGE Platform Europe, European Social Network AISBL, SGI Europe, Eurodiaconia, European Association of Service providers for Persons with Disabilities, European Ageing Network</t>
         </is>
       </c>
-      <c r="D88" s="469" t="inlineStr">
+      <c r="D89" s="473" t="inlineStr">
         <is>
           <t>VC meeting on the Impact of COVID-19 on Social Services  and 
 the risks for persons in vulnerable situations</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="466" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="470" t="inlineStr">
         <is>
           <t>29/04/2020</t>
         </is>
       </c>
-      <c r="B89" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C89" s="469" t="inlineStr">
+      <c r="B90" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C90" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE, European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="D89" s="469" t="inlineStr">
+      <c r="D90" s="473" t="inlineStr">
         <is>
           <t>Video call with Pharmaceutical Industrial Associations, the European Medicines Agency and the European Centre for Disease Prevention and Control, to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="466" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="470" t="inlineStr">
         <is>
           <t>23/04/2020</t>
         </is>
       </c>
-      <c r="B90" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C90" s="469" t="inlineStr">
+      <c r="B91" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C91" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE, European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="D90" s="469" t="inlineStr">
+      <c r="D91" s="473" t="inlineStr">
         <is>
           <t>Video call with Pharmaceutical Industrial Associations, the European Medicines Agency and the European Centre for Disease Prevention and Control, to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="466" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="470" t="inlineStr">
         <is>
           <t>17/04/2020</t>
         </is>
       </c>
-      <c r="B91" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C91" s="469" t="inlineStr">
+      <c r="B92" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C92" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE, European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="D91" s="469" t="inlineStr">
+      <c r="D92" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Video call with Pharmaceutical Industrial Associations, the European Medicines Agency and the European Centre for Disease Prevention and Control, to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak  </t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="466" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="470" t="inlineStr">
         <is>
           <t>09/04/2020</t>
         </is>
       </c>
-      <c r="B92" s="469" t="inlineStr">
+      <c r="B93" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C92" s="469" t="inlineStr">
+      <c r="C93" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, European Confederation of Pharmaceutical Entrepreneurs, MEDICINES FOR EUROPE, European Chemical Industry Council</t>
         </is>
       </c>
-      <c r="D92" s="469" t="inlineStr">
+      <c r="D93" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Video call with Pharmaceutical Industrial Associations and the European Medicines Agency to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak </t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="466" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="470" t="inlineStr">
         <is>
           <t>07/04/2020</t>
         </is>
       </c>
-      <c r="B93" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C93" s="469" t="inlineStr">
+      <c r="B94" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C94" s="473" t="inlineStr">
         <is>
           <t>Gilead Sciences</t>
         </is>
       </c>
-      <c r="D93" s="469" t="inlineStr">
+      <c r="D94" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on medicines (potential treatments, production, clinical trials, access to results) </t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="466" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="470" t="inlineStr">
         <is>
           <t>07/04/2020</t>
         </is>
       </c>
-      <c r="B94" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C94" s="469" t="inlineStr">
+      <c r="B95" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C95" s="473" t="inlineStr">
         <is>
           <t>Novartis International AG</t>
         </is>
       </c>
-      <c r="D94" s="469" t="inlineStr">
+      <c r="D95" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on medicines (Production, clinical tests, supply and allocation) </t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="466" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="470" t="inlineStr">
         <is>
           <t>03/04/2020</t>
         </is>
       </c>
-      <c r="B95" s="469" t="inlineStr">
+      <c r="B96" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C95" s="469" t="inlineStr">
+      <c r="C96" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="D95" s="469" t="inlineStr">
+      <c r="D96" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Video call with Pharmaceutical Industrial Associations and the European Medicines Agency to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak </t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="466" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="470" t="inlineStr">
         <is>
           <t>27/03/2020</t>
         </is>
       </c>
-      <c r="B96" s="469" t="inlineStr">
+      <c r="B97" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C96" s="469" t="inlineStr">
+      <c r="C97" s="473" t="inlineStr">
         <is>
           <t>European Coordination Committee of the Radiological, Electromedical and healthcare IT Industry, MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="D96" s="469" t="inlineStr">
+      <c r="D97" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Video call with Pharmaceutical Industrial Associations and the European Medicines Agency to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak </t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="466" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="470" t="inlineStr">
         <is>
           <t>20/03/2020</t>
         </is>
       </c>
-      <c r="B97" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C97" s="469" t="inlineStr">
+      <c r="B98" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C98" s="473" t="inlineStr">
         <is>
           <t>MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="D97" s="469" t="inlineStr">
+      <c r="D98" s="473" t="inlineStr">
         <is>
           <t>Video call with Pharmaceutical Industrial Associations, the European Medicines Agency and the European Centre for Disease Prevention and Control, to discuss Possible shortages of medicines and medical devices for the Covid-19 outbreak</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="466" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="470" t="inlineStr">
         <is>
           <t>13/03/2020</t>
         </is>
       </c>
-      <c r="B98" s="469" t="inlineStr">
+      <c r="B99" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C98" s="469" t="inlineStr">
+      <c r="C99" s="473" t="inlineStr">
         <is>
           <t>MedTech Europe, European Federation of Pharmaceutical Industries and Associations, Association of the European Self-Care Industry, Vaccines Europe, MEDICINES FOR EUROPE</t>
         </is>
       </c>
-      <c r="D98" s="469" t="inlineStr">
+      <c r="D99" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Video call with Pharmaceutical Industrial Associations and the European Medicines Agency to discuss possible shortages of medicines and medical devices for the Covid-19 outbreak </t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="466" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="470" t="inlineStr">
         <is>
           <t>27/02/2020</t>
         </is>
       </c>
-      <c r="B99" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C99" s="469" t="inlineStr">
+      <c r="B100" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C100" s="473" t="inlineStr">
         <is>
           <t>European farmers, European agri-cooperatives</t>
         </is>
       </c>
-      <c r="D99" s="469" t="inlineStr">
+      <c r="D100" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve"> Farm to Fork Strategy</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="466" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="470" t="inlineStr">
         <is>
           <t>27/02/2020</t>
         </is>
       </c>
-      <c r="B100" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C100" s="469" t="inlineStr">
+      <c r="B101" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C101" s="473" t="inlineStr">
         <is>
           <t>Compassion in World Farming International</t>
         </is>
       </c>
-      <c r="D100" s="469" t="inlineStr">
+      <c r="D101" s="473" t="inlineStr">
         <is>
           <t>Animal welfare.</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="466" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="470" t="inlineStr">
         <is>
           <t>25/02/2020</t>
         </is>
       </c>
-      <c r="B101" s="469" t="inlineStr">
+      <c r="B102" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C101" s="469" t="inlineStr">
+      <c r="C102" s="473" t="inlineStr">
         <is>
           <t>Eurogroup for Animals</t>
         </is>
       </c>
-      <c r="D101" s="469" t="inlineStr">
+      <c r="D102" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion and exchange of views on animal welfare issues </t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="466" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="470" t="inlineStr">
         <is>
           <t>10/02/2020</t>
         </is>
       </c>
-      <c r="B102" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C102" s="469" t="inlineStr">
+      <c r="B103" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C103" s="473" t="inlineStr">
         <is>
           <t>Green 10</t>
         </is>
       </c>
-      <c r="D102" s="469" t="inlineStr">
+      <c r="D103" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on food safety </t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="466" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="470" t="inlineStr">
         <is>
           <t>07/02/2020</t>
         </is>
       </c>
-      <c r="B103" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C103" s="469" t="inlineStr">
+      <c r="B104" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C104" s="473" t="inlineStr">
         <is>
           <t>Euroseeds</t>
         </is>
       </c>
-      <c r="D103" s="469" t="inlineStr">
+      <c r="D104" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on food safety </t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="466" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="470" t="inlineStr">
         <is>
           <t>07/02/2020</t>
         </is>
       </c>
-      <c r="B104" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C104" s="469" t="inlineStr">
+      <c r="B105" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C105" s="473" t="inlineStr">
         <is>
           <t>FoodDrinkEurope</t>
         </is>
       </c>
-      <c r="D104" s="469" t="inlineStr">
+      <c r="D105" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on food safety </t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="466" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="470" t="inlineStr">
         <is>
           <t>07/02/2020</t>
         </is>
       </c>
-      <c r="B105" s="469" t="inlineStr">
+      <c r="B106" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C105" s="469" t="inlineStr">
+      <c r="C106" s="473" t="inlineStr">
         <is>
           <t>CropLife Europe</t>
         </is>
       </c>
-      <c r="D105" s="469" t="inlineStr">
+      <c r="D106" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on food safety </t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="466" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="470" t="inlineStr">
         <is>
           <t>06/02/2020</t>
         </is>
       </c>
-      <c r="B106" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C106" s="469" t="inlineStr">
+      <c r="B107" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C107" s="473" t="inlineStr">
         <is>
           <t>Pesticide Action Network Europe</t>
         </is>
       </c>
-      <c r="D106" s="469" t="inlineStr">
+      <c r="D107" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on food safety </t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="466" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="470" t="inlineStr">
         <is>
           <t>05/02/2020</t>
         </is>
       </c>
-      <c r="B107" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C107" s="469" t="inlineStr">
+      <c r="B108" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C108" s="473" t="inlineStr">
         <is>
           <t>EUROPA DONNA-The European Breast Cancer Coalition, FTI Consulting Belgium, Union for Imternational Cancer Control, Novartis International AG, European Cancer Patient Coalition, General Electric Company, Eli Lilly and Company, European Organisation for Research and Treatment of Cancer</t>
         </is>
       </c>
-      <c r="D107" s="469" t="inlineStr">
+      <c r="D108" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on Cancer and Europe's Beating Cancer Plan  </t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="466" t="inlineStr">
+    <row r="109">
+      <c r="A109" s="470" t="inlineStr">
         <is>
           <t>30/01/2020</t>
         </is>
       </c>
-      <c r="B108" s="469" t="inlineStr">
+      <c r="B109" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C108" s="469" t="inlineStr">
+      <c r="C109" s="473" t="inlineStr">
         <is>
           <t>Bureau Européen des Unions de Consommateurs</t>
         </is>
       </c>
-      <c r="D108" s="469" t="inlineStr">
+      <c r="D109" s="473" t="inlineStr">
         <is>
           <t>Discussion on the Health and food Safety of Consumers</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="466" t="inlineStr">
+    <row r="110">
+      <c r="A110" s="470" t="inlineStr">
         <is>
           <t>21/01/2020</t>
         </is>
       </c>
-      <c r="B109" s="469" t="inlineStr">
+      <c r="B110" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C109" s="469" t="inlineStr">
+      <c r="C110" s="473" t="inlineStr">
         <is>
           <t>European Society for Medical Oncology (ESMO)</t>
         </is>
       </c>
-      <c r="D109" s="469" t="inlineStr">
+      <c r="D110" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on cancer </t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="466" t="inlineStr">
+    <row r="111">
+      <c r="A111" s="470" t="inlineStr">
         <is>
           <t>21/01/2020</t>
         </is>
       </c>
-      <c r="B110" s="469" t="inlineStr">
+      <c r="B111" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C110" s="469" t="inlineStr">
+      <c r="C111" s="473" t="inlineStr">
         <is>
           <t>European Society for Paediatric Oncology</t>
         </is>
       </c>
-      <c r="D110" s="469" t="inlineStr">
+      <c r="D111" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on cancer </t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="466" t="inlineStr">
+    <row r="112">
+      <c r="A112" s="470" t="inlineStr">
         <is>
           <t>20/01/2020</t>
         </is>
       </c>
-      <c r="B111" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C111" s="469" t="inlineStr">
+      <c r="B112" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C112" s="473" t="inlineStr">
         <is>
           <t>Association of European Cancer Leagues</t>
         </is>
       </c>
-      <c r="D111" s="469" t="inlineStr">
+      <c r="D112" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on cancer </t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="466" t="inlineStr">
+    <row r="113">
+      <c r="A113" s="470" t="inlineStr">
         <is>
           <t>20/01/2020</t>
         </is>
       </c>
-      <c r="B112" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C112" s="469" t="inlineStr">
+      <c r="B113" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C113" s="473" t="inlineStr">
         <is>
           <t>EUROPEAN ORGANISATION FOR RARE DISEASES</t>
         </is>
       </c>
-      <c r="D112" s="469" t="inlineStr">
+      <c r="D113" s="473" t="inlineStr">
         <is>
           <t>Discussion on cancer</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="466" t="inlineStr">
+    <row r="114">
+      <c r="A114" s="470" t="inlineStr">
         <is>
           <t>20/01/2020</t>
         </is>
       </c>
-      <c r="B113" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C113" s="469" t="inlineStr">
+      <c r="B114" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C114" s="473" t="inlineStr">
         <is>
           <t>European Oncology Nursing Society vzw / asbl</t>
         </is>
       </c>
-      <c r="D113" s="469" t="inlineStr">
+      <c r="D114" s="473" t="inlineStr">
         <is>
           <t>Discussion on cancer</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="466" t="inlineStr">
+    <row r="115">
+      <c r="A115" s="470" t="inlineStr">
         <is>
           <t>20/01/2020</t>
         </is>
       </c>
-      <c r="B114" s="469" t="inlineStr">
+      <c r="B115" s="473" t="inlineStr">
         <is>
           <t xml:space="preserve">Brussels </t>
         </is>
       </c>
-      <c r="C114" s="469" t="inlineStr">
+      <c r="C115" s="473" t="inlineStr">
         <is>
           <t>European Cancer Patient Coalition</t>
         </is>
       </c>
-      <c r="D114" s="469" t="inlineStr">
+      <c r="D115" s="473" t="inlineStr">
         <is>
           <t>Discussion on cancer</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="466" t="inlineStr">
+    <row r="116">
+      <c r="A116" s="470" t="inlineStr">
         <is>
           <t>08/01/2020</t>
         </is>
       </c>
-      <c r="B115" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C115" s="469" t="inlineStr">
+      <c r="B116" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C116" s="473" t="inlineStr">
         <is>
           <t>European Cancer Organisation</t>
         </is>
       </c>
-      <c r="D115" s="469" t="inlineStr">
+      <c r="D116" s="473" t="inlineStr">
         <is>
           <t>Discussion on cancer</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="466" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="470" t="inlineStr">
         <is>
           <t>07/01/2020</t>
         </is>
       </c>
-      <c r="B116" s="469" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="C116" s="469" t="inlineStr">
+      <c r="B117" s="473" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="C117" s="473" t="inlineStr">
         <is>
           <t>European Patients' Forum (EPF)</t>
         </is>
       </c>
-      <c r="D116" s="469" t="inlineStr">
+      <c r="D117" s="473" t="inlineStr">
         <is>
           <t>Discussion on cancer</t>
         </is>
